--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd38</t>
   </si>
   <si>
     <t>Pecam1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H2">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I2">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J2">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N2">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q2">
-        <v>7261.900822800974</v>
+        <v>10176.38636997836</v>
       </c>
       <c r="R2">
-        <v>7261.900822800974</v>
+        <v>91587.47732980525</v>
       </c>
       <c r="S2">
-        <v>0.5044877965558466</v>
+        <v>0.4531852075197283</v>
       </c>
       <c r="T2">
-        <v>0.5044877965558466</v>
+        <v>0.4531852075197284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H3">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I3">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J3">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N3">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q3">
-        <v>118.9584727232856</v>
+        <v>129.0749794586373</v>
       </c>
       <c r="R3">
-        <v>118.9584727232856</v>
+        <v>1161.674815127736</v>
       </c>
       <c r="S3">
-        <v>0.008264103194220107</v>
+        <v>0.005748098512074441</v>
       </c>
       <c r="T3">
-        <v>0.008264103194220107</v>
+        <v>0.005748098512074441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H4">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I4">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J4">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N4">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q4">
-        <v>159.5234486820681</v>
+        <v>203.4581859910989</v>
       </c>
       <c r="R4">
-        <v>159.5234486820681</v>
+        <v>1831.12367391989</v>
       </c>
       <c r="S4">
-        <v>0.01108217188424302</v>
+        <v>0.009060607261530275</v>
       </c>
       <c r="T4">
-        <v>0.01108217188424302</v>
+        <v>0.009060607261530275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H5">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I5">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J5">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N5">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q5">
-        <v>179.6538699072396</v>
+        <v>214.5497888975653</v>
       </c>
       <c r="R5">
-        <v>179.6538699072396</v>
+        <v>1930.948100078088</v>
       </c>
       <c r="S5">
-        <v>0.01248064207757605</v>
+        <v>0.009554549824454419</v>
       </c>
       <c r="T5">
-        <v>0.01248064207757605</v>
+        <v>0.009554549824454417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H6">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I6">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J6">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N6">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q6">
-        <v>199.4543395594908</v>
+        <v>218.3855361507182</v>
       </c>
       <c r="R6">
-        <v>199.4543395594908</v>
+        <v>1965.469825356464</v>
       </c>
       <c r="S6">
-        <v>0.01385619037400435</v>
+        <v>0.009725367229740987</v>
       </c>
       <c r="T6">
-        <v>0.01385619037400435</v>
+        <v>0.009725367229740985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.2916380413831</v>
+        <v>39.13122733333334</v>
       </c>
       <c r="H7">
-        <v>36.2916380413831</v>
+        <v>117.393682</v>
       </c>
       <c r="I7">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616898</v>
       </c>
       <c r="J7">
-        <v>0.5574095005490616</v>
+        <v>0.4934917545616899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N7">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q7">
-        <v>104.1967119337635</v>
+        <v>139.6250322662953</v>
       </c>
       <c r="R7">
-        <v>104.1967119337635</v>
+        <v>1256.625290396658</v>
       </c>
       <c r="S7">
-        <v>0.007238596463171405</v>
+        <v>0.006217924214161336</v>
       </c>
       <c r="T7">
-        <v>0.007238596463171405</v>
+        <v>0.006217924214161336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H8">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I8">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J8">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N8">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q8">
-        <v>221.3737136666121</v>
+        <v>290.42282519028</v>
       </c>
       <c r="R8">
-        <v>221.3737136666121</v>
+        <v>2613.80542671252</v>
       </c>
       <c r="S8">
-        <v>0.01537893999769306</v>
+        <v>0.01293340519092365</v>
       </c>
       <c r="T8">
-        <v>0.01537893999769306</v>
+        <v>0.01293340519092365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H9">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I9">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J9">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N9">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q9">
-        <v>3.626361681528002</v>
+        <v>3.683657325192</v>
       </c>
       <c r="R9">
-        <v>3.626361681528002</v>
+        <v>33.152915926728</v>
       </c>
       <c r="S9">
-        <v>0.0002519251169727461</v>
+        <v>0.0001640443816356644</v>
       </c>
       <c r="T9">
-        <v>0.0002519251169727461</v>
+        <v>0.0001640443816356644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H10">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I10">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J10">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N10">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q10">
-        <v>4.862955183961548</v>
+        <v>5.80647186883</v>
       </c>
       <c r="R10">
-        <v>4.862955183961548</v>
+        <v>52.25824681947</v>
       </c>
       <c r="S10">
-        <v>0.0003378318714851761</v>
+        <v>0.0002585797220314055</v>
       </c>
       <c r="T10">
-        <v>0.0003378318714851761</v>
+        <v>0.0002585797220314055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H11">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I11">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J11">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N11">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q11">
-        <v>5.476616291849077</v>
+        <v>6.123013962936001</v>
       </c>
       <c r="R11">
-        <v>5.476616291849077</v>
+        <v>55.107125666424</v>
       </c>
       <c r="S11">
-        <v>0.0003804632083354624</v>
+        <v>0.0002726762971211014</v>
       </c>
       <c r="T11">
-        <v>0.0003804632083354624</v>
+        <v>0.0002726762971211013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H12">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I12">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J12">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N12">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q12">
-        <v>6.080219068342414</v>
+        <v>6.232481952208</v>
       </c>
       <c r="R12">
-        <v>6.080219068342414</v>
+        <v>56.092337569872</v>
       </c>
       <c r="S12">
-        <v>0.0004223957879917434</v>
+        <v>0.0002775512371667498</v>
       </c>
       <c r="T12">
-        <v>0.0004223957879917434</v>
+        <v>0.0002775512371667498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.10632393422948</v>
+        <v>1.116762</v>
       </c>
       <c r="H13">
-        <v>1.10632393422948</v>
+        <v>3.350286</v>
       </c>
       <c r="I13">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="J13">
-        <v>0.0169922192798555</v>
+        <v>0.01408370951703743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N13">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q13">
-        <v>3.176360244442244</v>
+        <v>3.984744177726</v>
       </c>
       <c r="R13">
-        <v>3.176360244442244</v>
+        <v>35.862697599534</v>
       </c>
       <c r="S13">
-        <v>0.0002206632973773092</v>
+        <v>0.0001774526881588545</v>
       </c>
       <c r="T13">
-        <v>0.0002206632973773092</v>
+        <v>0.0001774526881588544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H14">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I14">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J14">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N14">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O14">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P14">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q14">
-        <v>1745.241789797833</v>
+        <v>4604.895181216639</v>
       </c>
       <c r="R14">
-        <v>1745.241789797833</v>
+        <v>41444.05663094976</v>
       </c>
       <c r="S14">
-        <v>0.1212427994372819</v>
+        <v>0.2050698845773775</v>
       </c>
       <c r="T14">
-        <v>0.1212427994372819</v>
+        <v>0.2050698845773775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H15">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I15">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J15">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N15">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O15">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P15">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q15">
-        <v>28.58911226043518</v>
+        <v>58.40744733102932</v>
       </c>
       <c r="R15">
-        <v>28.58911226043518</v>
+        <v>525.6670259792639</v>
       </c>
       <c r="S15">
-        <v>0.001986099590408848</v>
+        <v>0.00260105996147102</v>
       </c>
       <c r="T15">
-        <v>0.001986099590408848</v>
+        <v>0.00260105996147102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H16">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I16">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J16">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N16">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O16">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P16">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q16">
-        <v>38.33803240860446</v>
+        <v>92.06643558792888</v>
       </c>
       <c r="R16">
-        <v>38.33803240860446</v>
+        <v>828.59792029136</v>
       </c>
       <c r="S16">
-        <v>0.002663361834049876</v>
+        <v>0.004099996324884623</v>
       </c>
       <c r="T16">
-        <v>0.002663361834049876</v>
+        <v>0.004099996324884624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H17">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I17">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J17">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N17">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O17">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P17">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q17">
-        <v>43.17594650653506</v>
+        <v>97.08547347810133</v>
       </c>
       <c r="R17">
-        <v>43.17594650653506</v>
+        <v>873.769261302912</v>
       </c>
       <c r="S17">
-        <v>0.002999454089059506</v>
+        <v>0.004323509234586776</v>
       </c>
       <c r="T17">
-        <v>0.002999454089059506</v>
+        <v>0.004323509234586775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H18">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I18">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J18">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N18">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O18">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P18">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q18">
-        <v>47.93456383524209</v>
+        <v>98.82117939572622</v>
       </c>
       <c r="R18">
-        <v>47.93456383524209</v>
+        <v>889.3906145615359</v>
       </c>
       <c r="S18">
-        <v>0.00333003755878609</v>
+        <v>0.004400805459186955</v>
       </c>
       <c r="T18">
-        <v>0.00333003755878609</v>
+        <v>0.004400805459186955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.721915222412621</v>
+        <v>17.70718933333333</v>
       </c>
       <c r="H19">
-        <v>8.721915222412621</v>
+        <v>53.121568</v>
       </c>
       <c r="I19">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="J19">
-        <v>0.133961393597405</v>
+        <v>0.2233089153587338</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N19">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O19">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P19">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q19">
-        <v>25.04144031482245</v>
+        <v>63.18142952562133</v>
       </c>
       <c r="R19">
-        <v>25.04144031482245</v>
+        <v>568.6328657305919</v>
       </c>
       <c r="S19">
-        <v>0.001739641087818772</v>
+        <v>0.002813659801226934</v>
       </c>
       <c r="T19">
-        <v>0.001739641087818772</v>
+        <v>0.002813659801226934</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H20">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I20">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J20">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N20">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O20">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P20">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q20">
-        <v>2897.913406748408</v>
+        <v>4093.14103084744</v>
       </c>
       <c r="R20">
-        <v>2897.913406748408</v>
+        <v>36838.26927762696</v>
       </c>
       <c r="S20">
-        <v>0.2013194595814186</v>
+        <v>0.1822799272779632</v>
       </c>
       <c r="T20">
-        <v>0.2013194595814186</v>
+        <v>0.1822799272779632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H21">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I21">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J21">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N21">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O21">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P21">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q21">
-        <v>47.47122845147292</v>
+        <v>51.91647361548267</v>
       </c>
       <c r="R21">
-        <v>47.47122845147292</v>
+        <v>467.248262539344</v>
       </c>
       <c r="S21">
-        <v>0.003297849423402839</v>
+        <v>0.002311997305697331</v>
       </c>
       <c r="T21">
-        <v>0.003297849423402839</v>
+        <v>0.002311997305697331</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H22">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I22">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J22">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N22">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O22">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P22">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q22">
-        <v>63.65897192853696</v>
+        <v>81.83484970645111</v>
       </c>
       <c r="R22">
-        <v>63.65897192853696</v>
+        <v>736.5136473580601</v>
       </c>
       <c r="S22">
-        <v>0.004422419868142873</v>
+        <v>0.00364435291647075</v>
       </c>
       <c r="T22">
-        <v>0.004422419868142873</v>
+        <v>0.00364435291647075</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H23">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I23">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J23">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N23">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O23">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P23">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q23">
-        <v>71.69216034234078</v>
+        <v>86.29610867439467</v>
       </c>
       <c r="R23">
-        <v>71.69216034234078</v>
+        <v>776.664978069552</v>
       </c>
       <c r="S23">
-        <v>0.004980489390308932</v>
+        <v>0.003843026246833998</v>
       </c>
       <c r="T23">
-        <v>0.004980489390308932</v>
+        <v>0.003843026246833997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H24">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I24">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J24">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N24">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O24">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P24">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q24">
-        <v>79.59367922359728</v>
+        <v>87.83892101416178</v>
       </c>
       <c r="R24">
-        <v>79.59367922359728</v>
+        <v>790.550289127456</v>
       </c>
       <c r="S24">
-        <v>0.005529411765747266</v>
+        <v>0.003911732338067328</v>
       </c>
       <c r="T24">
-        <v>0.005529411765747266</v>
+        <v>0.003911732338067327</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.4824374498163</v>
+        <v>15.73934266666667</v>
       </c>
       <c r="H25">
-        <v>14.4824374498163</v>
+        <v>47.218028</v>
       </c>
       <c r="I25">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="J25">
-        <v>0.2224382436645584</v>
+        <v>0.1984920064494016</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N25">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O25">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P25">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q25">
-        <v>41.58044234147079</v>
+        <v>56.15991057381467</v>
       </c>
       <c r="R25">
-        <v>41.58044234147079</v>
+        <v>505.439195164332</v>
       </c>
       <c r="S25">
-        <v>0.002888613635537795</v>
+        <v>0.00250097036436891</v>
       </c>
       <c r="T25">
-        <v>0.002888613635537795</v>
+        <v>0.00250097036436891</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H26">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I26">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J26">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N26">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O26">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P26">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q26">
-        <v>901.5161768564386</v>
+        <v>1365.6955721997</v>
       </c>
       <c r="R26">
-        <v>901.5161768564386</v>
+        <v>12291.2601497973</v>
       </c>
       <c r="S26">
-        <v>0.06262876906742636</v>
+        <v>0.06081854685883072</v>
       </c>
       <c r="T26">
-        <v>0.06262876906742636</v>
+        <v>0.06081854685883072</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H27">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I27">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J27">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N27">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O27">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P27">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q27">
-        <v>14.76789481859281</v>
+        <v>17.32217326658</v>
       </c>
       <c r="R27">
-        <v>14.76789481859281</v>
+        <v>155.89955939922</v>
       </c>
       <c r="S27">
-        <v>0.001025932865043836</v>
+        <v>0.0007714086711238385</v>
       </c>
       <c r="T27">
-        <v>0.001025932865043836</v>
+        <v>0.0007714086711238383</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H28">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I28">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J28">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N28">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O28">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P28">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q28">
-        <v>19.80376392958537</v>
+        <v>27.30457881940834</v>
       </c>
       <c r="R28">
-        <v>19.80376392958537</v>
+        <v>245.741209374675</v>
       </c>
       <c r="S28">
-        <v>0.001375777151483482</v>
+        <v>0.001215955327228663</v>
       </c>
       <c r="T28">
-        <v>0.001375777151483482</v>
+        <v>0.001215955327228663</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H29">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I29">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J29">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N29">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O29">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P29">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q29">
-        <v>22.30282041964999</v>
+        <v>28.79309865614001</v>
       </c>
       <c r="R29">
-        <v>22.30282041964999</v>
+        <v>259.13788790526</v>
       </c>
       <c r="S29">
-        <v>0.001549387826278543</v>
+        <v>0.001282243609393004</v>
       </c>
       <c r="T29">
-        <v>0.001549387826278543</v>
+        <v>0.001282243609393004</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H30">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I30">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J30">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N30">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O30">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P30">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q30">
-        <v>24.76091563968005</v>
+        <v>29.30786518025334</v>
       </c>
       <c r="R30">
-        <v>24.76091563968005</v>
+        <v>263.77078662228</v>
       </c>
       <c r="S30">
-        <v>0.001720152901640605</v>
+        <v>0.001305167716789587</v>
       </c>
       <c r="T30">
-        <v>0.001720152901640605</v>
+        <v>0.001305167716789587</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.5053629314516</v>
+        <v>5.251505000000001</v>
       </c>
       <c r="H31">
-        <v>4.5053629314516</v>
+        <v>15.754515</v>
       </c>
       <c r="I31">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="J31">
-        <v>0.06919864290911967</v>
+        <v>0.06622778259581688</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N31">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O31">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P31">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q31">
-        <v>12.93532143658589</v>
+        <v>18.738015775115</v>
       </c>
       <c r="R31">
-        <v>12.93532143658589</v>
+        <v>168.642141976035</v>
       </c>
       <c r="S31">
-        <v>0.000898623097246845</v>
+        <v>0.0008344604124510549</v>
       </c>
       <c r="T31">
-        <v>0.000898623097246845</v>
+        <v>0.0008344604124510548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H32">
+        <v>1.045697</v>
+      </c>
+      <c r="I32">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J32">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>260.05794</v>
+      </c>
+      <c r="N32">
+        <v>780.17382</v>
+      </c>
+      <c r="O32">
+        <v>0.9183237679872462</v>
+      </c>
+      <c r="P32">
+        <v>0.9183237679872462</v>
+      </c>
+      <c r="Q32">
+        <v>90.64726922806</v>
+      </c>
+      <c r="R32">
+        <v>815.82542305254</v>
+      </c>
+      <c r="S32">
+        <v>0.004036796562422817</v>
+      </c>
+      <c r="T32">
+        <v>0.004036796562422817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H33">
+        <v>1.045697</v>
+      </c>
+      <c r="I33">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J33">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.298516</v>
+      </c>
+      <c r="N33">
+        <v>9.895548</v>
+      </c>
+      <c r="O33">
+        <v>0.011647810645144</v>
+      </c>
+      <c r="P33">
+        <v>0.011647810645144</v>
+      </c>
+      <c r="Q33">
+        <v>1.149749428550667</v>
+      </c>
+      <c r="R33">
+        <v>10.347744856956</v>
+      </c>
+      <c r="S33">
+        <v>5.120181314170474E-05</v>
+      </c>
+      <c r="T33">
+        <v>5.120181314170473E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H34">
+        <v>1.045697</v>
+      </c>
+      <c r="I34">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J34">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.199381666666667</v>
+      </c>
+      <c r="N34">
+        <v>15.598145</v>
+      </c>
+      <c r="O34">
+        <v>0.01836019989751954</v>
+      </c>
+      <c r="P34">
+        <v>0.01836019989751954</v>
+      </c>
+      <c r="Q34">
+        <v>1.812325936896111</v>
+      </c>
+      <c r="R34">
+        <v>16.310933432065</v>
+      </c>
+      <c r="S34">
+        <v>8.070834537382024E-05</v>
+      </c>
+      <c r="T34">
+        <v>8.070834537382024E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H35">
+        <v>1.045697</v>
+      </c>
+      <c r="I35">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J35">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.482828</v>
+      </c>
+      <c r="N35">
+        <v>16.448484</v>
+      </c>
+      <c r="O35">
+        <v>0.01936111340490499</v>
+      </c>
+      <c r="P35">
+        <v>0.01936111340490499</v>
+      </c>
+      <c r="Q35">
+        <v>1.911125597038667</v>
+      </c>
+      <c r="R35">
+        <v>17.200130373348</v>
+      </c>
+      <c r="S35">
+        <v>8.510819251569699E-05</v>
+      </c>
+      <c r="T35">
+        <v>8.510819251569697E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H36">
+        <v>1.045697</v>
+      </c>
+      <c r="I36">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J36">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.580850666666667</v>
+      </c>
+      <c r="N36">
+        <v>16.742552</v>
+      </c>
+      <c r="O36">
+        <v>0.01970725374809732</v>
+      </c>
+      <c r="P36">
+        <v>0.01970725374809732</v>
+      </c>
+      <c r="Q36">
+        <v>1.945292933193778</v>
+      </c>
+      <c r="R36">
+        <v>17.507636398744</v>
+      </c>
+      <c r="S36">
+        <v>8.662976714571795E-05</v>
+      </c>
+      <c r="T36">
+        <v>8.662976714571794E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.3485656666666667</v>
+      </c>
+      <c r="H37">
+        <v>1.045697</v>
+      </c>
+      <c r="I37">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="J37">
+        <v>0.004395831517320458</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.568123</v>
+      </c>
+      <c r="N37">
+        <v>10.704369</v>
+      </c>
+      <c r="O37">
+        <v>0.01259985431708779</v>
+      </c>
+      <c r="P37">
+        <v>0.01259985431708779</v>
+      </c>
+      <c r="Q37">
+        <v>1.243725172243667</v>
+      </c>
+      <c r="R37">
+        <v>11.193526550193</v>
+      </c>
+      <c r="S37">
+        <v>5.538683672070075E-05</v>
+      </c>
+      <c r="T37">
+        <v>5.538683672070074E-05</v>
       </c>
     </row>
   </sheetData>
